--- a/Code/Results/Cases/Case_2_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008338008659974</v>
+        <v>1.040611444595344</v>
       </c>
       <c r="D2">
-        <v>1.030521811897625</v>
+        <v>1.048372287641586</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.034670604428946</v>
+        <v>1.056953125393542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053317647581958</v>
+        <v>1.041075353867378</v>
       </c>
       <c r="J2">
-        <v>1.030272159589331</v>
+        <v>1.045697114550355</v>
       </c>
       <c r="K2">
-        <v>1.041571695683119</v>
+        <v>1.051132316400556</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.045667163625009</v>
+        <v>1.059689423953979</v>
       </c>
       <c r="N2">
-        <v>1.013506858011897</v>
+        <v>1.019074468538932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014511845278786</v>
+        <v>1.041853218005208</v>
       </c>
       <c r="D3">
-        <v>1.035387654601249</v>
+        <v>1.049355389508184</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.04006914999862</v>
+        <v>1.058070536565577</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05542612644662</v>
+        <v>1.04139478301384</v>
       </c>
       <c r="J3">
-        <v>1.034614571233283</v>
+        <v>1.046583118648308</v>
       </c>
       <c r="K3">
-        <v>1.045586913058919</v>
+        <v>1.051927007648588</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.050213776997136</v>
+        <v>1.060619803631208</v>
       </c>
       <c r="N3">
-        <v>1.014990346008037</v>
+        <v>1.019373302413491</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018400868127051</v>
+        <v>1.042656007461104</v>
       </c>
       <c r="D4">
-        <v>1.03845384932488</v>
+        <v>1.049990630505686</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.043473819297965</v>
+        <v>1.058792967129345</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056739594926256</v>
+        <v>1.041599446241812</v>
       </c>
       <c r="J4">
-        <v>1.037345309149273</v>
+        <v>1.047155210044253</v>
       </c>
       <c r="K4">
-        <v>1.048109306904678</v>
+        <v>1.052439721703338</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.053074407637972</v>
+        <v>1.061220625156442</v>
       </c>
       <c r="N4">
-        <v>1.015922712988799</v>
+        <v>1.019566126708456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020011664275838</v>
+        <v>1.04299333031914</v>
       </c>
       <c r="D5">
-        <v>1.03972401850483</v>
+        <v>1.05025747370699</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.044884883174824</v>
+        <v>1.059096532705145</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057280030059776</v>
+        <v>1.041685001538242</v>
       </c>
       <c r="J5">
-        <v>1.038475192534138</v>
+        <v>1.047395428662709</v>
       </c>
       <c r="K5">
-        <v>1.049152341467564</v>
+        <v>1.052654907866476</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.054258370631844</v>
+        <v>1.061472925574931</v>
       </c>
       <c r="N5">
-        <v>1.016308358722515</v>
+        <v>1.019647061012254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020280741102663</v>
+        <v>1.04304995843282</v>
       </c>
       <c r="D6">
-        <v>1.039936203258884</v>
+        <v>1.050302265455106</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.045120645148864</v>
+        <v>1.059147494289601</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0573700945508</v>
+        <v>1.041699338217479</v>
       </c>
       <c r="J6">
-        <v>1.038663865107209</v>
+        <v>1.047435745550194</v>
       </c>
       <c r="K6">
-        <v>1.049326473181312</v>
+        <v>1.05269101756632</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.054456092743057</v>
+        <v>1.061515271257755</v>
       </c>
       <c r="N6">
-        <v>1.01637274726443</v>
+        <v>1.019660642687129</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018422485034937</v>
+        <v>1.042660515449513</v>
       </c>
       <c r="D7">
-        <v>1.038470894407564</v>
+        <v>1.049994196909412</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.043492752410274</v>
+        <v>1.058797023952186</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056746861859321</v>
+        <v>1.041600591341387</v>
       </c>
       <c r="J7">
-        <v>1.037360476862839</v>
+        <v>1.047158420989148</v>
       </c>
       <c r="K7">
-        <v>1.048123311322847</v>
+        <v>1.052442598439714</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.053090300026102</v>
+        <v>1.061223997524858</v>
       </c>
       <c r="N7">
-        <v>1.015927890495976</v>
+        <v>1.019567208662919</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010447151686845</v>
+        <v>1.04103125868923</v>
       </c>
       <c r="D8">
-        <v>1.032183824766037</v>
+        <v>1.048704716958202</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.036513990109492</v>
+        <v>1.057330886837979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054041016228819</v>
+        <v>1.041183726864207</v>
       </c>
       <c r="J8">
-        <v>1.031756584453417</v>
+        <v>1.045996795849298</v>
       </c>
       <c r="K8">
-        <v>1.042944802657877</v>
+        <v>1.0514011983026</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.047221068469626</v>
+        <v>1.060004098712096</v>
       </c>
       <c r="N8">
-        <v>1.014014085017364</v>
+        <v>1.019175573229331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9955243607185575</v>
+        <v>1.038154653381421</v>
       </c>
       <c r="D9">
-        <v>1.020433102645768</v>
+        <v>1.046425598112071</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.023492443514767</v>
+        <v>1.054742627298149</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048862499534981</v>
+        <v>1.040433594004858</v>
       </c>
       <c r="J9">
-        <v>1.021236161351254</v>
+        <v>1.043940501983215</v>
       </c>
       <c r="K9">
-        <v>1.033203142902157</v>
+        <v>1.049554537158626</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.036215533330135</v>
+        <v>1.057845252439275</v>
       </c>
       <c r="N9">
-        <v>1.010417338025647</v>
+        <v>1.018481292342197</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9849013140477308</v>
+        <v>1.036232942535482</v>
       </c>
       <c r="D10">
-        <v>1.012083567403551</v>
+        <v>1.044901463436782</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.014254093787508</v>
+        <v>1.053013829360002</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045101926153466</v>
+        <v>1.039923002022662</v>
       </c>
       <c r="J10">
-        <v>1.013727056824764</v>
+        <v>1.04256323640242</v>
       </c>
       <c r="K10">
-        <v>1.026238023703608</v>
+        <v>1.048315556722724</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.028370668690272</v>
+        <v>1.056399720936052</v>
       </c>
       <c r="N10">
-        <v>1.007848057296143</v>
+        <v>1.018015600430377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9801185026989814</v>
+        <v>1.035399837619441</v>
       </c>
       <c r="D11">
-        <v>1.0083296293008</v>
+        <v>1.04424035532634</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.010103739140756</v>
+        <v>1.052264435471126</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043392263881862</v>
+        <v>1.039699409516489</v>
       </c>
       <c r="J11">
-        <v>1.010342420263036</v>
+        <v>1.041965321478308</v>
       </c>
       <c r="K11">
-        <v>1.023096152236734</v>
+        <v>1.047777176942053</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.024837596419074</v>
+        <v>1.055772273083646</v>
       </c>
       <c r="N11">
-        <v>1.006689639394154</v>
+        <v>1.017813269506942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9783122618639387</v>
+        <v>1.035090232825162</v>
       </c>
       <c r="D12">
-        <v>1.006912887402822</v>
+        <v>1.043994615976423</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.00853785356598</v>
+        <v>1.051985952833019</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042744218832535</v>
+        <v>1.039615980398349</v>
       </c>
       <c r="J12">
-        <v>1.009063716752181</v>
+        <v>1.04174299414457</v>
       </c>
       <c r="K12">
-        <v>1.021908835065237</v>
+        <v>1.04757691245022</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.023503289615008</v>
+        <v>1.055538980130825</v>
       </c>
       <c r="N12">
-        <v>1.00625195404197</v>
+        <v>1.017738011408986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9787010882781277</v>
+        <v>1.035156651064752</v>
       </c>
       <c r="D13">
-        <v>1.007217821941919</v>
+        <v>1.044047335822552</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.008874868541403</v>
+        <v>1.052045693968922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042883828495673</v>
+        <v>1.039633893297537</v>
       </c>
       <c r="J13">
-        <v>1.009339001620986</v>
+        <v>1.041790694788047</v>
       </c>
       <c r="K13">
-        <v>1.022164460158492</v>
+        <v>1.047619882847846</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.023790522888337</v>
+        <v>1.055589032742109</v>
       </c>
       <c r="N13">
-        <v>1.006346182411451</v>
+        <v>1.017754159216645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9799698175649596</v>
+        <v>1.035374248723011</v>
       </c>
       <c r="D14">
-        <v>1.008212986690535</v>
+        <v>1.044220046003161</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.009974807955743</v>
+        <v>1.052241418559754</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043338966310621</v>
+        <v>1.039692520933493</v>
       </c>
       <c r="J14">
-        <v>1.010237170014514</v>
+        <v>1.041946948640841</v>
       </c>
       <c r="K14">
-        <v>1.022998430480175</v>
+        <v>1.047760628867306</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.024727759578082</v>
+        <v>1.055752993737227</v>
       </c>
       <c r="N14">
-        <v>1.006653614177036</v>
+        <v>1.017807050762353</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9807475191337276</v>
+        <v>1.0355082975021</v>
       </c>
       <c r="D15">
-        <v>1.008823128242992</v>
+        <v>1.044326435282974</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.01064924817296</v>
+        <v>1.052361994390826</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043617644194193</v>
+        <v>1.039728593384555</v>
       </c>
       <c r="J15">
-        <v>1.01078766497626</v>
+        <v>1.042043190574401</v>
       </c>
       <c r="K15">
-        <v>1.023509535660918</v>
+        <v>1.047847309145717</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.025302263561912</v>
+        <v>1.055853984861977</v>
       </c>
       <c r="N15">
-        <v>1.006842036922119</v>
+        <v>1.017839625267878</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9852146959150593</v>
+        <v>1.036288211771243</v>
       </c>
       <c r="D16">
-        <v>1.012329656578818</v>
+        <v>1.044945314659187</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.014526235023036</v>
+        <v>1.053063546845101</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045213612597312</v>
+        <v>1.039937788314125</v>
       </c>
       <c r="J16">
-        <v>1.01394875472476</v>
+        <v>1.042602885200653</v>
       </c>
       <c r="K16">
-        <v>1.026443772752234</v>
+        <v>1.048351247172645</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.028602152706984</v>
+        <v>1.056441330318044</v>
       </c>
       <c r="N16">
-        <v>1.007923928986568</v>
+        <v>1.018029014009582</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9879663705236528</v>
+        <v>1.036777163427908</v>
       </c>
       <c r="D17">
-        <v>1.014491075574261</v>
+        <v>1.04533321270417</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.016916830947078</v>
+        <v>1.053503392932459</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046192423907993</v>
+        <v>1.040068340070353</v>
       </c>
       <c r="J17">
-        <v>1.015894968951419</v>
+        <v>1.042953550324097</v>
       </c>
       <c r="K17">
-        <v>1.028249706440078</v>
+        <v>1.048666846047168</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.030634608835592</v>
+        <v>1.056809347371073</v>
       </c>
       <c r="N17">
-        <v>1.008589944355149</v>
+        <v>1.018147629121247</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.989553883421175</v>
+        <v>1.03706226524155</v>
       </c>
       <c r="D18">
-        <v>1.015738540958615</v>
+        <v>1.045559356463389</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.018296868288298</v>
+        <v>1.053759869427169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046755559985435</v>
+        <v>1.040144247277384</v>
       </c>
       <c r="J18">
-        <v>1.017017425244206</v>
+        <v>1.043157937975584</v>
       </c>
       <c r="K18">
-        <v>1.029291026283246</v>
+        <v>1.048850747004168</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.031807074969455</v>
+        <v>1.057023858667881</v>
       </c>
       <c r="N18">
-        <v>1.00897402745037</v>
+        <v>1.018216749435254</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9900922804186461</v>
+        <v>1.037159461515822</v>
       </c>
       <c r="D19">
-        <v>1.016161690802879</v>
+        <v>1.045636446937759</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.018765039267253</v>
+        <v>1.053847308072174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046946276365202</v>
+        <v>1.040170088750169</v>
       </c>
       <c r="J19">
-        <v>1.017398036203432</v>
+        <v>1.043227603612874</v>
       </c>
       <c r="K19">
-        <v>1.029644084636705</v>
+        <v>1.048913421573831</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.032204688490027</v>
+        <v>1.05709697663385</v>
       </c>
       <c r="N19">
-        <v>1.00910425920356</v>
+        <v>1.018240306524725</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9876729663693298</v>
+        <v>1.036724713439026</v>
       </c>
       <c r="D20">
-        <v>1.014260557350391</v>
+        <v>1.045291606370595</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.01666183941397</v>
+        <v>1.053456209724805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046088217676705</v>
+        <v>1.040054358080933</v>
       </c>
       <c r="J20">
-        <v>1.015687486391805</v>
+        <v>1.042915942743674</v>
       </c>
       <c r="K20">
-        <v>1.028057202731917</v>
+        <v>1.048633004168692</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.030417903775329</v>
+        <v>1.056769877826632</v>
       </c>
       <c r="N20">
-        <v>1.0085189449895</v>
+        <v>1.018134909661611</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9795970469500794</v>
+        <v>1.035310175875699</v>
       </c>
       <c r="D21">
-        <v>1.007920566038662</v>
+        <v>1.044169191988473</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.009651587519031</v>
+        <v>1.052183785997682</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043205305158793</v>
+        <v>1.039675266967583</v>
       </c>
       <c r="J21">
-        <v>1.009973288090828</v>
+        <v>1.041900942284129</v>
       </c>
       <c r="K21">
-        <v>1.022753418709988</v>
+        <v>1.047719190590027</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.024452385998268</v>
+        <v>1.055704717700802</v>
       </c>
       <c r="N21">
-        <v>1.006563291679499</v>
+        <v>1.017791478380252</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9743463354577518</v>
+        <v>1.03441991566121</v>
       </c>
       <c r="D22">
-        <v>1.003804090690969</v>
+        <v>1.043462475745877</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.005102625136848</v>
+        <v>1.051383041943929</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041317036191009</v>
+        <v>1.039434736230507</v>
       </c>
       <c r="J22">
-        <v>1.006255297845934</v>
+        <v>1.041261409810462</v>
       </c>
       <c r="K22">
-        <v>1.019300562610811</v>
+        <v>1.047142982522483</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.020573671253284</v>
+        <v>1.055033672408458</v>
       </c>
       <c r="N22">
-        <v>1.005290607405838</v>
+        <v>1.017574950987251</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9771470415394186</v>
+        <v>1.03489194446752</v>
       </c>
       <c r="D23">
-        <v>1.005999221513417</v>
+        <v>1.04383721576006</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>1.007528132942271</v>
+        <v>1.051807600589188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042325500011232</v>
+        <v>1.039562453167639</v>
       </c>
       <c r="J23">
-        <v>1.008238689116843</v>
+        <v>1.041600567879359</v>
       </c>
       <c r="K23">
-        <v>1.02114268229318</v>
+        <v>1.047448599028693</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>1.022642525507804</v>
+        <v>1.055389533618569</v>
       </c>
       <c r="N23">
-        <v>1.005969547276891</v>
+        <v>1.017689793233311</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9878055969705991</v>
+        <v>1.036748413626025</v>
       </c>
       <c r="D24">
-        <v>1.014364759456758</v>
+        <v>1.045310406823599</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.016777103352257</v>
+        <v>1.053477530027275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04613532799618</v>
+        <v>1.04006067668607</v>
       </c>
       <c r="J24">
-        <v>1.015781278081614</v>
+        <v>1.042932936452</v>
       </c>
       <c r="K24">
-        <v>1.02814422401057</v>
+        <v>1.048648296420843</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>1.030515863622888</v>
+        <v>1.056787712868481</v>
       </c>
       <c r="N24">
-        <v>1.008551040083458</v>
+        <v>1.018140657241454</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9994940185928286</v>
+        <v>1.038899012175266</v>
       </c>
       <c r="D25">
-        <v>1.023556803857508</v>
+        <v>1.047015630648893</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>1.026951490202802</v>
+        <v>1.055412326783514</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050253048566204</v>
+        <v>1.040629369745052</v>
       </c>
       <c r="J25">
-        <v>1.02403842303724</v>
+        <v>1.044473223794716</v>
       </c>
       <c r="K25">
-        <v>1.035800114552469</v>
+        <v>1.050033324592629</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>1.039145344912227</v>
+        <v>1.058404469394271</v>
       </c>
       <c r="N25">
-        <v>1.011375775129322</v>
+        <v>1.018661278237905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040611444595344</v>
+        <v>1.008338008659976</v>
       </c>
       <c r="D2">
-        <v>1.048372287641586</v>
+        <v>1.030521811897626</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.056953125393542</v>
+        <v>1.034670604428947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041075353867378</v>
+        <v>1.053317647581959</v>
       </c>
       <c r="J2">
-        <v>1.045697114550355</v>
+        <v>1.030272159589333</v>
       </c>
       <c r="K2">
-        <v>1.051132316400556</v>
+        <v>1.04157169568312</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.059689423953979</v>
+        <v>1.04566716362501</v>
       </c>
       <c r="N2">
-        <v>1.019074468538932</v>
+        <v>1.013506858011898</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041853218005208</v>
+        <v>1.014511845278787</v>
       </c>
       <c r="D3">
-        <v>1.049355389508184</v>
+        <v>1.035387654601249</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.058070536565577</v>
+        <v>1.040069149998621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04139478301384</v>
+        <v>1.05542612644662</v>
       </c>
       <c r="J3">
-        <v>1.046583118648308</v>
+        <v>1.034614571233283</v>
       </c>
       <c r="K3">
-        <v>1.051927007648588</v>
+        <v>1.045586913058919</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.060619803631208</v>
+        <v>1.050213776997137</v>
       </c>
       <c r="N3">
-        <v>1.019373302413491</v>
+        <v>1.014990346008037</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042656007461104</v>
+        <v>1.018400868127052</v>
       </c>
       <c r="D4">
-        <v>1.049990630505686</v>
+        <v>1.038453849324882</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.058792967129345</v>
+        <v>1.043473819297966</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041599446241812</v>
+        <v>1.056739594926257</v>
       </c>
       <c r="J4">
-        <v>1.047155210044253</v>
+        <v>1.037345309149274</v>
       </c>
       <c r="K4">
-        <v>1.052439721703338</v>
+        <v>1.048109306904679</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.061220625156442</v>
+        <v>1.053074407637973</v>
       </c>
       <c r="N4">
-        <v>1.019566126708456</v>
+        <v>1.015922712988799</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04299333031914</v>
+        <v>1.020011664275838</v>
       </c>
       <c r="D5">
-        <v>1.05025747370699</v>
+        <v>1.03972401850483</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.059096532705145</v>
+        <v>1.044884883174823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041685001538242</v>
+        <v>1.057280030059776</v>
       </c>
       <c r="J5">
-        <v>1.047395428662709</v>
+        <v>1.038475192534138</v>
       </c>
       <c r="K5">
-        <v>1.052654907866476</v>
+        <v>1.049152341467563</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.061472925574931</v>
+        <v>1.054258370631844</v>
       </c>
       <c r="N5">
-        <v>1.019647061012254</v>
+        <v>1.016308358722515</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04304995843282</v>
+        <v>1.020280741102663</v>
       </c>
       <c r="D6">
-        <v>1.050302265455106</v>
+        <v>1.039936203258884</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.059147494289601</v>
+        <v>1.045120645148864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041699338217479</v>
+        <v>1.0573700945508</v>
       </c>
       <c r="J6">
-        <v>1.047435745550194</v>
+        <v>1.03866386510721</v>
       </c>
       <c r="K6">
-        <v>1.05269101756632</v>
+        <v>1.049326473181312</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.061515271257755</v>
+        <v>1.054456092743057</v>
       </c>
       <c r="N6">
-        <v>1.019660642687129</v>
+        <v>1.01637274726443</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042660515449513</v>
+        <v>1.018422485034936</v>
       </c>
       <c r="D7">
-        <v>1.049994196909412</v>
+        <v>1.038470894407563</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.058797023952186</v>
+        <v>1.043492752410273</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041600591341387</v>
+        <v>1.056746861859321</v>
       </c>
       <c r="J7">
-        <v>1.047158420989148</v>
+        <v>1.037360476862838</v>
       </c>
       <c r="K7">
-        <v>1.052442598439714</v>
+        <v>1.048123311322846</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.061223997524858</v>
+        <v>1.053090300026101</v>
       </c>
       <c r="N7">
-        <v>1.019567208662919</v>
+        <v>1.015927890495976</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04103125868923</v>
+        <v>1.010447151686845</v>
       </c>
       <c r="D8">
-        <v>1.048704716958202</v>
+        <v>1.032183824766037</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.057330886837979</v>
+        <v>1.036513990109492</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041183726864207</v>
+        <v>1.054041016228819</v>
       </c>
       <c r="J8">
-        <v>1.045996795849298</v>
+        <v>1.031756584453417</v>
       </c>
       <c r="K8">
-        <v>1.0514011983026</v>
+        <v>1.042944802657877</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.060004098712096</v>
+        <v>1.047221068469625</v>
       </c>
       <c r="N8">
-        <v>1.019175573229331</v>
+        <v>1.014014085017365</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038154653381421</v>
+        <v>0.995524360718557</v>
       </c>
       <c r="D9">
-        <v>1.046425598112071</v>
+        <v>1.020433102645767</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.054742627298149</v>
+        <v>1.023492443514767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040433594004858</v>
+        <v>1.048862499534981</v>
       </c>
       <c r="J9">
-        <v>1.043940501983215</v>
+        <v>1.021236161351254</v>
       </c>
       <c r="K9">
-        <v>1.049554537158626</v>
+        <v>1.033203142902156</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.057845252439275</v>
+        <v>1.036215533330134</v>
       </c>
       <c r="N9">
-        <v>1.018481292342197</v>
+        <v>1.010417338025647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036232942535482</v>
+        <v>0.9849013140477292</v>
       </c>
       <c r="D10">
-        <v>1.044901463436782</v>
+        <v>1.012083567403549</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.053013829360002</v>
+        <v>1.014254093787506</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039923002022662</v>
+        <v>1.045101926153465</v>
       </c>
       <c r="J10">
-        <v>1.04256323640242</v>
+        <v>1.013727056824762</v>
       </c>
       <c r="K10">
-        <v>1.048315556722724</v>
+        <v>1.026238023703607</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.056399720936052</v>
+        <v>1.028370668690271</v>
       </c>
       <c r="N10">
-        <v>1.018015600430377</v>
+        <v>1.007848057296142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035399837619441</v>
+        <v>0.9801185026989799</v>
       </c>
       <c r="D11">
-        <v>1.04424035532634</v>
+        <v>1.008329629300798</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.052264435471126</v>
+        <v>1.010103739140755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039699409516489</v>
+        <v>1.043392263881861</v>
       </c>
       <c r="J11">
-        <v>1.041965321478308</v>
+        <v>1.010342420263035</v>
       </c>
       <c r="K11">
-        <v>1.047777176942053</v>
+        <v>1.023096152236732</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.055772273083646</v>
+        <v>1.024837596419073</v>
       </c>
       <c r="N11">
-        <v>1.017813269506942</v>
+        <v>1.006689639394153</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035090232825162</v>
+        <v>0.9783122618639382</v>
       </c>
       <c r="D12">
-        <v>1.043994615976423</v>
+        <v>1.006912887402822</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.051985952833019</v>
+        <v>1.00853785356598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039615980398349</v>
+        <v>1.042744218832534</v>
       </c>
       <c r="J12">
-        <v>1.04174299414457</v>
+        <v>1.009063716752181</v>
       </c>
       <c r="K12">
-        <v>1.04757691245022</v>
+        <v>1.021908835065236</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.055538980130825</v>
+        <v>1.023503289615007</v>
       </c>
       <c r="N12">
-        <v>1.017738011408986</v>
+        <v>1.00625195404197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035156651064752</v>
+        <v>0.9787010882781282</v>
       </c>
       <c r="D13">
-        <v>1.044047335822552</v>
+        <v>1.00721782194192</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.052045693968922</v>
+        <v>1.008874868541404</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039633893297537</v>
+        <v>1.042883828495673</v>
       </c>
       <c r="J13">
-        <v>1.041790694788047</v>
+        <v>1.009339001620986</v>
       </c>
       <c r="K13">
-        <v>1.047619882847846</v>
+        <v>1.022164460158493</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.055589032742109</v>
+        <v>1.023790522888338</v>
       </c>
       <c r="N13">
-        <v>1.017754159216645</v>
+        <v>1.006346182411451</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035374248723011</v>
+        <v>0.9799698175649586</v>
       </c>
       <c r="D14">
-        <v>1.044220046003161</v>
+        <v>1.008212986690534</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.052241418559754</v>
+        <v>1.009974807955742</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039692520933493</v>
+        <v>1.043338966310621</v>
       </c>
       <c r="J14">
-        <v>1.041946948640841</v>
+        <v>1.010237170014514</v>
       </c>
       <c r="K14">
-        <v>1.047760628867306</v>
+        <v>1.022998430480174</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.055752993737227</v>
+        <v>1.024727759578082</v>
       </c>
       <c r="N14">
-        <v>1.017807050762353</v>
+        <v>1.006653614177036</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0355082975021</v>
+        <v>0.9807475191337272</v>
       </c>
       <c r="D15">
-        <v>1.044326435282974</v>
+        <v>1.008823128242991</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.052361994390826</v>
+        <v>1.010649248172959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039728593384555</v>
+        <v>1.043617644194192</v>
       </c>
       <c r="J15">
-        <v>1.042043190574401</v>
+        <v>1.01078766497626</v>
       </c>
       <c r="K15">
-        <v>1.047847309145717</v>
+        <v>1.023509535660917</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.055853984861977</v>
+        <v>1.025302263561912</v>
       </c>
       <c r="N15">
-        <v>1.017839625267878</v>
+        <v>1.006842036922119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036288211771243</v>
+        <v>0.9852146959150593</v>
       </c>
       <c r="D16">
-        <v>1.044945314659187</v>
+        <v>1.012329656578818</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.053063546845101</v>
+        <v>1.014526235023036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039937788314125</v>
+        <v>1.045213612597312</v>
       </c>
       <c r="J16">
-        <v>1.042602885200653</v>
+        <v>1.01394875472476</v>
       </c>
       <c r="K16">
-        <v>1.048351247172645</v>
+        <v>1.026443772752234</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.056441330318044</v>
+        <v>1.028602152706984</v>
       </c>
       <c r="N16">
-        <v>1.018029014009582</v>
+        <v>1.007923928986568</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036777163427908</v>
+        <v>0.9879663705236522</v>
       </c>
       <c r="D17">
-        <v>1.04533321270417</v>
+        <v>1.01449107557426</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.053503392932459</v>
+        <v>1.016916830947077</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040068340070353</v>
+        <v>1.046192423907992</v>
       </c>
       <c r="J17">
-        <v>1.042953550324097</v>
+        <v>1.015894968951418</v>
       </c>
       <c r="K17">
-        <v>1.048666846047168</v>
+        <v>1.028249706440078</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.056809347371073</v>
+        <v>1.030634608835592</v>
       </c>
       <c r="N17">
-        <v>1.018147629121247</v>
+        <v>1.008589944355149</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03706226524155</v>
+        <v>0.9895538834211758</v>
       </c>
       <c r="D18">
-        <v>1.045559356463389</v>
+        <v>1.015738540958616</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.053759869427169</v>
+        <v>1.0182968682883</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040144247277384</v>
+        <v>1.046755559985436</v>
       </c>
       <c r="J18">
-        <v>1.043157937975584</v>
+        <v>1.017017425244207</v>
       </c>
       <c r="K18">
-        <v>1.048850747004168</v>
+        <v>1.029291026283247</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.057023858667881</v>
+        <v>1.031807074969455</v>
       </c>
       <c r="N18">
-        <v>1.018216749435254</v>
+        <v>1.00897402745037</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037159461515822</v>
+        <v>0.9900922804186482</v>
       </c>
       <c r="D19">
-        <v>1.045636446937759</v>
+        <v>1.016161690802881</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.053847308072174</v>
+        <v>1.018765039267254</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040170088750169</v>
+        <v>1.046946276365203</v>
       </c>
       <c r="J19">
-        <v>1.043227603612874</v>
+        <v>1.017398036203434</v>
       </c>
       <c r="K19">
-        <v>1.048913421573831</v>
+        <v>1.029644084636707</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.05709697663385</v>
+        <v>1.032204688490029</v>
       </c>
       <c r="N19">
-        <v>1.018240306524725</v>
+        <v>1.00910425920356</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036724713439026</v>
+        <v>0.987672966369329</v>
       </c>
       <c r="D20">
-        <v>1.045291606370595</v>
+        <v>1.01426055735039</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.053456209724805</v>
+        <v>1.016661839413969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040054358080933</v>
+        <v>1.046088217676704</v>
       </c>
       <c r="J20">
-        <v>1.042915942743674</v>
+        <v>1.015687486391804</v>
       </c>
       <c r="K20">
-        <v>1.048633004168692</v>
+        <v>1.028057202731916</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.056769877826632</v>
+        <v>1.030417903775328</v>
       </c>
       <c r="N20">
-        <v>1.018134909661611</v>
+        <v>1.008518944989499</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035310175875699</v>
+        <v>0.9795970469500788</v>
       </c>
       <c r="D21">
-        <v>1.044169191988473</v>
+        <v>1.007920566038662</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.052183785997682</v>
+        <v>1.00965158751903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039675266967583</v>
+        <v>1.043205305158792</v>
       </c>
       <c r="J21">
-        <v>1.041900942284129</v>
+        <v>1.009973288090827</v>
       </c>
       <c r="K21">
-        <v>1.047719190590027</v>
+        <v>1.022753418709987</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.055704717700802</v>
+        <v>1.024452385998267</v>
       </c>
       <c r="N21">
-        <v>1.017791478380252</v>
+        <v>1.006563291679498</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03441991566121</v>
+        <v>0.9743463354577526</v>
       </c>
       <c r="D22">
-        <v>1.043462475745877</v>
+        <v>1.00380409069097</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.051383041943929</v>
+        <v>1.005102625136849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039434736230507</v>
+        <v>1.04131703619101</v>
       </c>
       <c r="J22">
-        <v>1.041261409810462</v>
+        <v>1.006255297845935</v>
       </c>
       <c r="K22">
-        <v>1.047142982522483</v>
+        <v>1.019300562610812</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.055033672408458</v>
+        <v>1.020573671253284</v>
       </c>
       <c r="N22">
-        <v>1.017574950987251</v>
+        <v>1.005290607405838</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03489194446752</v>
+        <v>0.9771470415394172</v>
       </c>
       <c r="D23">
-        <v>1.04383721576006</v>
+        <v>1.005999221513416</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.051807600589188</v>
+        <v>1.00752813294227</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039562453167639</v>
+        <v>1.042325500011231</v>
       </c>
       <c r="J23">
-        <v>1.041600567879359</v>
+        <v>1.008238689116842</v>
       </c>
       <c r="K23">
-        <v>1.047448599028693</v>
+        <v>1.021142682293179</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.055389533618569</v>
+        <v>1.022642525507802</v>
       </c>
       <c r="N23">
-        <v>1.017689793233311</v>
+        <v>1.00596954727689</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036748413626025</v>
+        <v>0.9878055969705988</v>
       </c>
       <c r="D24">
-        <v>1.045310406823599</v>
+        <v>1.014364759456757</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.053477530027275</v>
+        <v>1.016777103352256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04006067668607</v>
+        <v>1.04613532799618</v>
       </c>
       <c r="J24">
-        <v>1.042932936452</v>
+        <v>1.015781278081614</v>
       </c>
       <c r="K24">
-        <v>1.048648296420843</v>
+        <v>1.028144224010569</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.056787712868481</v>
+        <v>1.030515863622887</v>
       </c>
       <c r="N24">
-        <v>1.018140657241454</v>
+        <v>1.008551040083457</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038899012175266</v>
+        <v>0.9994940185928287</v>
       </c>
       <c r="D25">
-        <v>1.047015630648893</v>
+        <v>1.023556803857508</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.055412326783514</v>
+        <v>1.026951490202801</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040629369745052</v>
+        <v>1.050253048566204</v>
       </c>
       <c r="J25">
-        <v>1.044473223794716</v>
+        <v>1.02403842303724</v>
       </c>
       <c r="K25">
-        <v>1.050033324592629</v>
+        <v>1.035800114552469</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.058404469394271</v>
+        <v>1.039145344912227</v>
       </c>
       <c r="N25">
-        <v>1.018661278237905</v>
+        <v>1.011375775129322</v>
       </c>
     </row>
   </sheetData>
